--- a/写作笔记/文学/阅读书单记录.xlsx
+++ b/写作笔记/文学/阅读书单记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,22 @@
   </si>
   <si>
     <t>微信读书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《在细雨中呼喊》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《兄弟》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -702,6 +718,43 @@
       </c>
       <c r="H11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45042</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45054</v>
       </c>
     </row>
   </sheetData>

--- a/写作笔记/文学/阅读书单记录.xlsx
+++ b/写作笔记/文学/阅读书单记录.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -755,6 +755,9 @@
       </c>
       <c r="F13" s="1">
         <v>45054</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45061</v>
       </c>
     </row>
   </sheetData>
